--- a/Projects 2022/GSK Office Dolmen Mall Karachi/Variation Orders/Variation Summary.xlsx
+++ b/Projects 2022/GSK Office Dolmen Mall Karachi/Variation Orders/Variation Summary.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762BC00D-D880-415C-8A2B-0639F02D6892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2E71BA-477D-4B9F-8D1D-5ADC7A3B3CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$29</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -79,8 +79,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -178,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -219,25 +219,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -262,11 +249,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -278,38 +262,32 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -399,14 +377,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>113550</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>113551</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -746,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:E31"/>
+  <dimension ref="A7:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -763,20 +741,20 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45157</v>
+        <v>45360</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="10" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
@@ -789,155 +767,148 @@
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>355339</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>71152</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>265794</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>150809</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>226355</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <v>34938</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>439406</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>302505</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>33594</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="21">
         <f>SUM(C16:C25)</f>
         <v>1879892</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
-    </row>
-    <row r="30" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="11"/>
+    <row r="29" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
